--- a/biology/Botanique/Édouard_Ernest_Prillieux/Édouard_Ernest_Prillieux.xlsx
+++ b/biology/Botanique/Édouard_Ernest_Prillieux/Édouard_Ernest_Prillieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Ernest_Prillieux</t>
+          <t>Édouard_Ernest_Prillieux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Ernest Prillieux est un botaniste et homme politique français né le 11 janvier 1829 à Paris et mort le 7 octobre 1915 à Mondoubleau (Loir-et-Cher).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Ernest_Prillieux</t>
+          <t>Édouard_Ernest_Prillieux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études de médecine et des études au Muséum national d'histoire naturelle, à Paris, il entre en 1850 à l'institut national agronomique de Versailles. Il se spécialise sur les maladies des plantes, et notamment sur celles de la vigne et des arbres fruitiers. En 1874, il est professeur à l'école des Arts et Manufactures, puis en 1876, à l'Institut agronomique de Paris. Il entre en 1876 à la Société nationale d'agriculture, dont il sera président. En 1976, il sera le premier professeur de Pathologie végétale à l'Institut Agronomique de Paris qui vient d'être fondé et où il enseignera jusqu'en 1898[1]. En 1879, il est président de la Société botanique de France. En 1897, il entre à l'Académie des Sciences, dans la section botanique. En 1883, il est inspecteur général de l'enseignement agricole.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études de médecine et des études au Muséum national d'histoire naturelle, à Paris, il entre en 1850 à l'institut national agronomique de Versailles. Il se spécialise sur les maladies des plantes, et notamment sur celles de la vigne et des arbres fruitiers. En 1874, il est professeur à l'école des Arts et Manufactures, puis en 1876, à l'Institut agronomique de Paris. Il entre en 1876 à la Société nationale d'agriculture, dont il sera président. En 1976, il sera le premier professeur de Pathologie végétale à l'Institut Agronomique de Paris qui vient d'être fondé et où il enseignera jusqu'en 1898. En 1879, il est président de la Société botanique de France. En 1897, il entre à l'Académie des Sciences, dans la section botanique. En 1883, il est inspecteur général de l'enseignement agricole.
 Il est conseiller général du canton de Mondoubleau de 1890 à 1915, et sénateur de Loir-et-Cher de 1897 à 1906, siégeant au groupe de l'Union républicaine.
 Il meurt le 7 octobre 1915 à Mondoubleau et est enterré au cimetière du Père-Lachaise (19e division).
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard_Ernest_Prillieux</t>
+          <t>Édouard_Ernest_Prillieux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de l'ordre du Mérite agricole (1900)</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89douard_Ernest_Prillieux</t>
+          <t>Édouard_Ernest_Prillieux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Édouard Ernest Prillieux », dans le Dictionnaire des parlementaires français (1889-1940), sous la direction de Jean Jolly, PUF, 1960 [détail de l’édition]</t>
         </is>
